--- a/www.eia.gov/electricity/monthly/xls/table_a_6_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_6_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.6.A. Relative Standard Error for Sales of Electricity to Ultimate Customers</t>
   </si>
   <si>
-    <t>by End-Use Sector, Census Division, and State, October 2016</t>
+    <t>by End-Use Sector, Census Division, and State, November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1314,10 +1314,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4</v>
       </c>
       <c r="D10" s="8">
         <v>8</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,19 +1334,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.19</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,10 +1354,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="C12" s="8">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="8">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,19 +1374,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="C13" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="D13" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="C14" s="8">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
         <v>6</v>
@@ -1594,19 +1594,19 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8">
         <v>4</v>
       </c>
       <c r="D24" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="8">
         <v>7</v>
@@ -1654,7 +1654,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8">
         <v>4</v>
@@ -1674,7 +1674,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="8">
         <v>9</v>
@@ -1694,10 +1694,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="C29" s="6">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1754,19 +1754,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="C32" s="8">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="D32" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <v>1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -1794,19 +1794,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="C34" s="8">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="D34" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -1834,13 +1834,13 @@
         <v>40</v>
       </c>
       <c r="B36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="8">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="D37" s="8">
         <v>3</v>
@@ -1874,19 +1874,19 @@
         <v>42</v>
       </c>
       <c r="B38" s="8">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,10 +1914,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
@@ -1954,10 +1954,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="8">
         <v>4</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="8">
         <v>4</v>
@@ -2034,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="8">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="8">
         <v>7</v>
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
@@ -2257,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="8">
         <v>3</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="6">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="8">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -2380,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="8">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="6">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="C65" s="6">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
